--- a/Documents/UnitTesting.xlsx
+++ b/Documents/UnitTesting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCB Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace2\SCB_TEST\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A263E4A9-78F8-425A-9DEA-93A2D0E0CC57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49821352-CAFE-4F25-9ACD-1AF35EC095AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DDF95173-35E3-4A07-A2F5-852EA17D67E1}"/>
   </bookViews>
@@ -91,9 +91,6 @@
     <t>Server accept request and return result</t>
   </si>
   <si>
-    <t>User access token returned from Scenario 1</t>
-  </si>
-  <si>
     <t>Call POST: /users by sending below data to add new user
 {"username": "john.doe", 
   "password": "thisismysecret",
@@ -1792,6 +1789,9 @@
   </si>
   <si>
     <t>Cannot log in</t>
+  </si>
+  <si>
+    <t>Use access token returned from Scenario 1</t>
   </si>
 </sst>
 </file>
@@ -3061,8 +3061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEE03F1-87DA-4B93-B49C-394B3771D0DC}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3117,13 +3117,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="7" t="s">
@@ -3135,13 +3135,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
@@ -3153,13 +3153,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
@@ -3171,13 +3171,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
@@ -3189,13 +3189,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
@@ -3207,13 +3207,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
@@ -3231,7 +3231,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3245,7 +3245,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3255,7 +3255,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3275,7 +3275,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>9</v>
@@ -3286,16 +3286,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>10</v>
@@ -3322,432 +3322,432 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3760,7 +3760,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3774,7 +3774,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3784,7 +3784,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3815,13 +3815,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
@@ -3833,13 +3833,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
@@ -3851,13 +3851,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
@@ -3869,13 +3869,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>96</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
@@ -3887,13 +3887,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
@@ -3905,13 +3905,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
